--- a/Excel/McDonalds-Dashboard.xlsx
+++ b/Excel/McDonalds-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Documents\GitHub\Dashboarding\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8060197A-0A42-4403-B7CD-CDF7CB75896E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BB37EB-C215-4FCB-94D4-B09B5FD3F991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{810B916D-8AC5-B94F-AAD8-02E834047D22}"/>
   </bookViews>
@@ -839,6 +839,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -6587,15 +6594,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6610,7 +6617,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7477125" y="1085850"/>
+          <a:off x="7467600" y="1095375"/>
           <a:ext cx="3200400" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6881,16 +6888,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6919,16 +6926,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6958,15 +6965,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
+      <xdr:colOff>533401</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>714376</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7029,6 +7036,241 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Inputs!D5">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{113B8E4B-2AE0-B1FA-FCB6-446D1AE318B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="1409700"/>
+          <a:ext cx="1714500" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{76B6E04D-9184-4FC5-AB08-48AB35F3739B}" type="TxLink">
+            <a:rPr lang="en-US" sz="3600" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t> $2,544 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-CA" sz="3200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Inputs!G5">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F72DC8C-AE50-DF8E-7839-58E42E395921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838575" y="1400175"/>
+          <a:ext cx="1714500" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{4F95AC21-94FA-426B-B8D2-1EE2DA8ED781}" type="TxLink">
+            <a:rPr lang="en-US" sz="3600" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t> $890 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-CA" sz="3600" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Inputs!J5">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18487ECA-90EA-E32A-D9AC-03DA217B37F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="1400175"/>
+          <a:ext cx="1714500" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{0C17197B-F6F0-4677-B855-446675912EBD}" type="TxLink">
+            <a:rPr lang="en-US" sz="3600" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t> 87.0 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-CA" sz="3600" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8035,7 +8277,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8053,7 +8295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC16DE6-AF43-5D41-92D8-941949992132}">
   <dimension ref="A2:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
